--- a/Tables/aq_hmf_metrics_outlet_min_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_50_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03983579546402535</v>
+        <v>0.1608963223812</v>
       </c>
       <c r="C2" t="n">
-        <v>20.26666666666667</v>
+        <v>50.27777777777778</v>
       </c>
       <c r="D2" t="n">
-        <v>3.725511463844797</v>
+        <v>42.52777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00672072926083699</v>
+        <v>0.1453257945749512</v>
       </c>
       <c r="F2" t="n">
-        <v>10.204</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>1.388888888888889</v>
@@ -571,22 +571,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01537200891242208</v>
+        <v>0.0200986181123616</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01445798925899436</v>
+        <v>0.054252812737872</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00115784187725808</v>
+        <v>0.0929034637065792</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.0699679829965536</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.05744070067462272</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002019729665939328</v>
+        <v>0.0122926829112192</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>0.02663167771330224</v>
       </c>
       <c r="F13" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.825</v>
       </c>
       <c r="H13" t="n">
         <v>145.2391304347826</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0647058067591824</v>
+        <v>0.04569480268510385</v>
       </c>
       <c r="C15" t="n">
         <v>17.96</v>
@@ -1453,10 +1453,10 @@
         <v>2.078686780459068</v>
       </c>
       <c r="E15" t="n">
-        <v>0.015024844612394</v>
+        <v>0.01008605005431892</v>
       </c>
       <c r="F15" t="n">
-        <v>78</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>2.230769230769231</v>
@@ -1465,7 +1465,7 @@
         <v>153.0666666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0166591406569392</v>
+        <v>0.01115801554121856</v>
       </c>
       <c r="J15" t="n">
         <v>0.0143097485282304</v>
@@ -1474,7 +1474,7 @@
         <v>0.01895851390781376</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01519899079049449</v>
+        <v>0.0138953840666688</v>
       </c>
       <c r="M15" t="n">
         <v>0.0073117657753344</v>
@@ -1483,22 +1483,22 @@
         <v>0.00443441817756</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0108648342382608</v>
+        <v>0.01084322282093568</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0084379672172544</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.044894661273504</v>
+        <v>0.013918296440832</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02808913384638144</v>
+        <v>0.0087723325419072</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0115342444918848</v>
+        <v>0.009000679592889601</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0115827876574848</v>
+        <v>0.008610198368803199</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9769347416424802</v>
+        <v>0.0530172920870208</v>
       </c>
       <c r="C22" t="n">
-        <v>45.7</v>
+        <v>29.48387096774194</v>
       </c>
       <c r="D22" t="n">
-        <v>17.21071428571428</v>
+        <v>7.425576036866358</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4186356387818895</v>
+        <v>0.01884823001379164</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>200.9</v>
+        <v>194.16</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1844391751792157</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2144138032465679</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3534056134947899</v>
+        <v>0.0047891716317648</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3568100168257373</v>
+        <v>0.0091746582984</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3911462654551286</v>
+        <v>0.030119092528176</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2035417404896486</v>
+        <v>0.0232302348115488</v>
       </c>
       <c r="O22" t="n">
-        <v>2.446575546293404e-05</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03063112583892587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_min_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_50_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,65 +543,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1608963223812</v>
+        <v>0.5762827146650111</v>
       </c>
       <c r="C2" t="n">
-        <v>50.27777777777778</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>42.52777777777778</v>
+        <v>44.29012345679013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1453257945749512</v>
+        <v>0.1593826472339868</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.388888888888889</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="H2" t="n">
         <v>173.7777777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.03891890050181281</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0200986181123616</v>
+        <v>0.2052493390129392</v>
       </c>
       <c r="K2" t="n">
-        <v>0.054252812737872</v>
+        <v>0.2631944420126784</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0929034637065792</v>
+        <v>0.19307558685744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0699679829965536</v>
+        <v>0.1148585666441472</v>
       </c>
       <c r="N2" t="n">
         <v>0.05744070067462272</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0122926829112192</v>
+        <v>0.0195542550533232</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.036882126359568</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0333305141916096</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.0420688665175968</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0165633164480448</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.0284659064805024</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01709494619344482</v>
+        <v>0.0007132284993262234</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5</v>
+        <v>19.44186046511628</v>
       </c>
       <c r="D3" t="n">
-        <v>3.660785333947099</v>
+        <v>3.451157111622227</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003143090022745087</v>
+        <v>0.0001868171467499317</v>
       </c>
       <c r="F3" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>3.291666666666667</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="H3" t="n">
-        <v>228.9545454545455</v>
+        <v>132.8</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00084488408863488</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004479330314373121</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004846666157101441</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00116701653555648</v>
+        <v>1.22328777312e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00186918371732736</v>
+        <v>3.914520873983999e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004263973414505281</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00227811134434176</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006118885441146239</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005205890939028679</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005954181975373364</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00154195423801776</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001537917388366464</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0407344527078239</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C4" t="n">
-        <v>18.28</v>
+        <v>37.875</v>
       </c>
       <c r="D4" t="n">
-        <v>1.896946988683831</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007367821022266251</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F4" t="n">
-        <v>56.00000000000001</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>2.928571428571428</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>95.39583333333333</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01609976234013662</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01922392204762624</v>
+        <v>0.004479330314373121</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01341065919915994</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00395998640288496</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00140922751463424</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.004263973414505281</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.00154195423801776</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0048238314520032</v>
+        <v>0.00777215886651792</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2755870048359825</v>
+        <v>0.08099889311296513</v>
       </c>
       <c r="C5" t="n">
-        <v>21.69047619047619</v>
+        <v>19.02083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>6.446794871794872</v>
+        <v>3.278577441077441</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1320609373306332</v>
+        <v>0.01174089462022325</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>1.736842105263158</v>
+        <v>2.130434782608696</v>
       </c>
       <c r="H5" t="n">
-        <v>195.4838709677419</v>
+        <v>123.5777777777778</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.01595500880086674</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.03744196041103189</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1064904198284463</v>
+        <v>0.02464448202428657</v>
       </c>
       <c r="L5" t="n">
-        <v>0.109224307042452</v>
+        <v>0.01284124932296693</v>
       </c>
       <c r="M5" t="n">
-        <v>0.081498149862528</v>
+        <v>0.001572291774791144</v>
       </c>
       <c r="N5" t="n">
-        <v>0.114919148514816</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.032050139655744</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002079589214304</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07309144444392</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.201353167455552</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0007339726638720001</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.009010737736802259</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,47 +819,47 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7192297808581759</v>
+        <v>0.05186583993632232</v>
       </c>
       <c r="C6" t="n">
-        <v>33.81481481481482</v>
+        <v>18.6530612244898</v>
       </c>
       <c r="D6" t="n">
-        <v>12.40917107583774</v>
+        <v>3.242220308036634</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2609393207115648</v>
+        <v>0.0158693616504945</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>2.076923076923077</v>
+        <v>1.340425531914894</v>
       </c>
       <c r="H6" t="n">
-        <v>147.3703703703704</v>
+        <v>180.0408163265306</v>
       </c>
       <c r="I6" t="n">
-        <v>0.342561352732704</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3013150935895579</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.187733896914816</v>
+        <v>0.0019113871455</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1818250462773818</v>
+        <v>0.0200479390474752</v>
       </c>
       <c r="M6" t="n">
-        <v>0.087995167146432</v>
+        <v>0.01554064786971648</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00244657554624</v>
+        <v>0.001100958995808</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.0041163633565488</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.000489315109248</v>
       </c>
       <c r="T6" t="n">
-        <v>0.077801102370432</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1004125574500776</v>
+        <v>0.01314054257940176</v>
       </c>
       <c r="C7" t="n">
-        <v>18.97916666666667</v>
+        <v>18.14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.603948240621035</v>
+        <v>1.996848595848596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01881172141605882</v>
+        <v>0.001460736763014261</v>
       </c>
       <c r="F7" t="n">
-        <v>57.99999999999999</v>
+        <v>64</v>
       </c>
       <c r="G7" t="n">
-        <v>2.171428571428571</v>
+        <v>3.9375</v>
       </c>
       <c r="H7" t="n">
-        <v>148.2444444444444</v>
+        <v>204.9545454545455</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01760422313499055</v>
+        <v>4.403835983232e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0182886052776896</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007980729431834987</v>
+        <v>0.0008903276610886302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.024918825008</v>
+        <v>0.002607618468981312</v>
       </c>
       <c r="M7" t="n">
-        <v>0.043778411180532</v>
+        <v>0.0045191988162804</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0162976882458816</v>
+        <v>0.002969829779053864</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.001299576446970938</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.0009010737736801919</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.001258683770144386</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.003054815501605232</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00244657554624</v>
+        <v>0.001305635428380528</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01472349163727261</v>
+        <v>4.483349688484801e-05</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,47 +957,47 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0665590877354592</v>
+        <v>0.008333525625602689</v>
       </c>
       <c r="C8" t="n">
-        <v>19.69565217391304</v>
+        <v>25.88571428571429</v>
       </c>
       <c r="D8" t="n">
-        <v>4.310533126293996</v>
+        <v>6.333594104308389</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01769572094347538</v>
+        <v>0.002055209948893224</v>
       </c>
       <c r="F8" t="n">
-        <v>56.00000000000001</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.827586206896552</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="H8" t="n">
-        <v>138.3611111111111</v>
+        <v>143.1714285714286</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.00288940572010944</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02830049669900661</v>
+        <v>0.00385766711843328</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0276576627732624</v>
+        <v>0.002668822468860442</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0232370308547328</v>
+        <v>0.003229667919155741</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0033137506565184</v>
+        <v>0.003078770667388416</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0066791512412352</v>
+        <v>0.0022753152580032</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.00280028046806784</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1940662169464741</v>
+        <v>0.1004125574500776</v>
       </c>
       <c r="C9" t="n">
-        <v>23.33333333333333</v>
+        <v>19.02083333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>4.567507117507118</v>
+        <v>3.356055345117845</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04452851379583939</v>
+        <v>0.01881172141605882</v>
       </c>
       <c r="F9" t="n">
-        <v>56.00000000000001</v>
+        <v>70</v>
       </c>
       <c r="G9" t="n">
-        <v>3.205128205128205</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="H9" t="n">
-        <v>162.1025641025641</v>
+        <v>148.2444444444444</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09610593577548218</v>
+        <v>0.0178482216793664</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04429647355244875</v>
+        <v>0.0182886052776896</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06214840134069849</v>
+        <v>0.02073228117883776</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03990500636781159</v>
+        <v>0.024918825008</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02798862036769039</v>
+        <v>0.043778411180532</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09058067852823805</v>
+        <v>0.0162976882458816</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1208955733570133</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02747015023318272</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.006605753974848</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02044334060682703</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02620499883404974</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04369269365871607</v>
+        <v>0.0183126179636064</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07398773210418941</v>
+        <v>0.01803480441717985</v>
       </c>
       <c r="C10" t="n">
-        <v>20.25581395348837</v>
+        <v>18.28</v>
       </c>
       <c r="D10" t="n">
-        <v>4.546195801552945</v>
+        <v>1.862569673017042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03186377183075512</v>
+        <v>0.001874900427195323</v>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>1.458333333333333</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="H10" t="n">
-        <v>158.6279069767442</v>
+        <v>138.32</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0333536207384352</v>
+        <v>0.003738223518446139</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02608160740271215</v>
+        <v>0.003520027098068675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04666312763084499</v>
+        <v>0.003732991241723643</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04926546848686177</v>
+        <v>0.003346156908837003</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00259826323010712</v>
+        <v>0.003563830862642974</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008477384267721867</v>
+        <v>0.0007339726638720001</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0167957411249376</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.015291097164</v>
+        <v>0.000503586799934409</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02516731100028505</v>
+        <v>0.002118311832722227</v>
       </c>
       <c r="R10" t="n">
-        <v>0.00122328777312</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000489315109248</v>
+        <v>0.001797866040154464</v>
       </c>
       <c r="T10" t="n">
-        <v>0.006505444377452374</v>
+        <v>0.003054045862750549</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01314054257940176</v>
+        <v>0.2183600696375624</v>
       </c>
       <c r="C11" t="n">
-        <v>18.12</v>
+        <v>26.85294117647059</v>
       </c>
       <c r="D11" t="n">
-        <v>1.996848595848596</v>
+        <v>8.377324263038549</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001460736763014261</v>
+        <v>0.06699524439480588</v>
       </c>
       <c r="F11" t="n">
-        <v>64</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9375</v>
+        <v>1.606060606060606</v>
       </c>
       <c r="H11" t="n">
-        <v>190.6521739130435</v>
+        <v>165.8823529411765</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.0729903193213423</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0008903276610886302</v>
+        <v>0.09821721070944839</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002607618468981312</v>
+        <v>0.07210246332888265</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0045191988162804</v>
+        <v>0.0728035436665166</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002969829779053864</v>
+        <v>0.0616983537689672</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001299576446970938</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0009010737736801919</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001258683770144386</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003054815501605232</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.483349688484801e-05</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000632139875894146</v>
+        <v>0.006870448355868643</v>
       </c>
       <c r="C12" t="n">
-        <v>18.22</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>1.94614114043886</v>
+        <v>3.450479497354497</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001286619316597412</v>
+        <v>0.001747652825357879</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G12" t="n">
-        <v>1.785714285714286</v>
+        <v>2.434782608695652</v>
       </c>
       <c r="H12" t="n">
-        <v>201.725</v>
+        <v>192.8846153846154</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.00020306577033792</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.002343452386965984</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.00152334278832672</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0009359374752141121</v>
       </c>
       <c r="M12" t="n">
-        <v>0.000119759872988448</v>
+        <v>0.001891386390409488</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000397369742000868</v>
+        <v>0.003679969558347161</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00029830746124512</v>
+        <v>0.003760294867987896</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.000687324623457024</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.00132329154857256</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.005310810321464889</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.001711868909704128</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.000167695278155136</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08257081260580626</v>
+        <v>0.02677409949027744</v>
       </c>
       <c r="C13" t="n">
-        <v>17.56</v>
+        <v>20.25581395348837</v>
       </c>
       <c r="D13" t="n">
-        <v>1.843597954333249</v>
+        <v>5.167986341823551</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02663167771330224</v>
+        <v>0.01415758851936224</v>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>2.825</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2391304347826</v>
+        <v>158.6279069767442</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01756209493574513</v>
+        <v>0.0060185758437504</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03180222000039169</v>
+        <v>0.0060376047646656</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0256360340986848</v>
+        <v>0.01240989466778089</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02642445506147803</v>
+        <v>0.025393415357016</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0370184355685728</v>
+        <v>0.004893151092479999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.009235822687056</v>
+        <v>0.00414939212642336</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007135845343200001</v>
+        <v>0.0068748772849344</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.015291097164</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01876034128856832</v>
+        <v>0.007880691676166401</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0127507362218208</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0209706475392</v>
+        <v>0.000489315109248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03510410417455054</v>
+        <v>0.0057005210227392</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1444147544302841</v>
+        <v>0.005422433731693104</v>
       </c>
       <c r="C14" t="n">
-        <v>17.56</v>
+        <v>18.14</v>
       </c>
       <c r="D14" t="n">
-        <v>1.528433747109444</v>
+        <v>1.996848595848596</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01237280995147974</v>
+        <v>0.00116226982301356</v>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>147.4186046511628</v>
+        <v>190.6521739130435</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02612170080580244</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03102854518375306</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0264384399626183</v>
+        <v>0.0008763633606631681</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02717706302928443</v>
+        <v>0.001644245561606055</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03521623082853731</v>
+        <v>0.001613589970011667</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002986860979367971</v>
+        <v>0.0008527872690357644</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.0007860684125032704</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.000599013440302536</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.001258683770144386</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01003867586246065</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02772697454187451</v>
+        <v>0</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04569480268510385</v>
+        <v>0.03575392140881323</v>
       </c>
       <c r="C15" t="n">
-        <v>17.96</v>
+        <v>18.52173913043478</v>
       </c>
       <c r="D15" t="n">
-        <v>2.078686780459068</v>
+        <v>2.775061900969286</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01008605005431892</v>
+        <v>0.009034180996676182</v>
       </c>
       <c r="F15" t="n">
-        <v>56.00000000000001</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>2.230769230769231</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>153.0666666666667</v>
+        <v>211.2941176470588</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01115801554121856</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0143097485282304</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01895851390781376</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0138953840666688</v>
+        <v>0.001467945327744</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0073117657753344</v>
+        <v>0.0107914369718736</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00443441817756</v>
+        <v>0.01512062609368134</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01084322282093568</v>
+        <v>0.00289674544674816</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.013918296440832</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0087723325419072</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.009000679592889601</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.008610198368803199</v>
+        <v>0</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,50 +1509,50 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1699705934131392</v>
+        <v>0.069554103966648</v>
       </c>
       <c r="C16" t="n">
-        <v>24.62162162162162</v>
+        <v>19.65217391304348</v>
       </c>
       <c r="D16" t="n">
-        <v>14.34523809523809</v>
+        <v>4.917417184265011</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1003305680433792</v>
+        <v>0.0478855998787824</v>
       </c>
       <c r="F16" t="n">
-        <v>56.00000000000001</v>
+        <v>48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.607142857142857</v>
+        <v>1.625</v>
       </c>
       <c r="H16" t="n">
-        <v>248.1621621621622</v>
+        <v>145.2391304347826</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.0230559163038792</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.0188977572817488</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.040272381045072</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0284781393582336</v>
+        <v>0.0199232801982144</v>
       </c>
       <c r="M16" t="n">
-        <v>0.053203956739808</v>
+        <v>0.04082355956456064</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1246463516021655</v>
+        <v>0.0034986030311232</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02832005293832271</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.0206980291211904</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.04409481926800247</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.0192545495489088</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,50 +1578,50 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.369615232381027</v>
+        <v>0.007268361527939575</v>
       </c>
       <c r="C17" t="n">
-        <v>27.66666666666667</v>
+        <v>17.56</v>
       </c>
       <c r="D17" t="n">
-        <v>17.81313131313131</v>
+        <v>1.465159509285768</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9587684733797062</v>
+        <v>0.0005743202600635163</v>
       </c>
       <c r="F17" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>1.727272727272727</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>248.6363636363636</v>
+        <v>147.5744680851064</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.0009118575258955421</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.001383228174012368</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.001199235217083187</v>
       </c>
       <c r="L17" t="n">
-        <v>0.019817261924544</v>
+        <v>0.001356059250934244</v>
       </c>
       <c r="M17" t="n">
-        <v>0.577310276394432</v>
+        <v>0.0009603088627625855</v>
       </c>
       <c r="N17" t="n">
-        <v>0.889180259653793</v>
+        <v>0.0007382319294820452</v>
       </c>
       <c r="O17" t="n">
-        <v>0.218452012106496</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.000907608169201608</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.001525877271132847</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4814912729799176</v>
+        <v>0.05629766057941939</v>
       </c>
       <c r="C18" t="n">
-        <v>18.06382978723404</v>
+        <v>17.96</v>
       </c>
       <c r="D18" t="n">
-        <v>2.105275988786627</v>
+        <v>2.040019790666849</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05628938726160604</v>
+        <v>0.006064555084425428</v>
       </c>
       <c r="F18" t="n">
-        <v>89.583</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>2.930232558139535</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="H18" t="n">
-        <v>91.8936170212766</v>
+        <v>163.5869565217391</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08219054673280377</v>
+        <v>0.009954684149024753</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09714592212052967</v>
+        <v>0.006647936311852138</v>
       </c>
       <c r="K18" t="n">
-        <v>0.061563089856128</v>
+        <v>0.01156150861807002</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0199314354500352</v>
+        <v>0.01069479723779712</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.009412643374261528</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.009721642688380799</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.013700823058944</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.019001736742464</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.008078016788850072</v>
       </c>
       <c r="S18" t="n">
-        <v>0.12599864063136</v>
+        <v>0.008577965706844801</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1409613816036278</v>
+        <v>0.01112402655621058</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1752101903571462</v>
+        <v>0.04457015638968908</v>
       </c>
       <c r="C19" t="n">
-        <v>17.96</v>
+        <v>18.12</v>
       </c>
       <c r="D19" t="n">
-        <v>3.017634448884449</v>
+        <v>3.304781045751634</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04801074204912677</v>
+        <v>0.008754675168789215</v>
       </c>
       <c r="F19" t="n">
-        <v>56.00000000000001</v>
+        <v>88</v>
       </c>
       <c r="G19" t="n">
-        <v>2.769230769230769</v>
+        <v>4.204545454545454</v>
       </c>
       <c r="H19" t="n">
-        <v>144.5681818181818</v>
+        <v>190.6521739130435</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03604115679180749</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05222733601800293</v>
+        <v>0.005516538541661953</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07924844495673464</v>
+        <v>0.017620440965316</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04175619416278778</v>
+        <v>0.00642980441681424</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0319033451229696</v>
+        <v>0.01657718037614016</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01056920635975702</v>
+        <v>0.01088120299370112</v>
       </c>
       <c r="O19" t="n">
-        <v>0.024221097907776</v>
+        <v>0.016759042491744</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.006157215124703999</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.0181332024235488</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0269367967641024</v>
+        <v>0.0114622064341344</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0280649399326464</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01790448467930182</v>
+        <v>0.01224674165929536</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,29 +1785,29 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1202757813101551</v>
+        <v>0.0837360868830192</v>
       </c>
       <c r="C20" t="n">
-        <v>39.34782608695652</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="D20" t="n">
-        <v>20.95652173913043</v>
+        <v>9.698958333333334</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06381626380242449</v>
+        <v>0.03934621021206078</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>2.130434782608696</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6086956521739</v>
+        <v>234.2083333333333</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02315794962495535</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0515784726586368</v>
+        <v>0.04382589406119916</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06137506599470401</v>
+        <v>0.03482210974963392</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0453734910589824</v>
+        <v>0.008171562324441601</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0060919731101376</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.321357697998624</v>
+        <v>0.008213888081391552</v>
       </c>
       <c r="C21" t="n">
-        <v>18.97916666666667</v>
+        <v>18.14</v>
       </c>
       <c r="D21" t="n">
-        <v>4.070179473304472</v>
+        <v>2.455955683205683</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0882293151057036</v>
+        <v>0.002254021930803212</v>
       </c>
       <c r="F21" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>1.911764705882353</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="H21" t="n">
-        <v>174.9347826086957</v>
+        <v>100.0208333333333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.001566475597469847</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1179012647912237</v>
+        <v>0.00224350977590208</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05345767568534401</v>
+        <v>0.001804716451683936</v>
       </c>
       <c r="M21" t="n">
-        <v>0.078548667120672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.07301915925732655</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08538548656377601</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.033599637501696</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0786818695670784</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04220342817264</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.00042019935006672</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,29 +1923,29 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0530172920870208</v>
+        <v>0.0008521494585658221</v>
       </c>
       <c r="C22" t="n">
-        <v>29.48387096774194</v>
+        <v>18.18</v>
       </c>
       <c r="D22" t="n">
-        <v>7.425576036866358</v>
+        <v>2.525519952269952</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01884823001379164</v>
+        <v>0.0004546882698074047</v>
       </c>
       <c r="F22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="H22" t="n">
-        <v>194.16</v>
+        <v>88.3</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0047891716317648</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0091746582984</v>
+        <v>4.5750962714688e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.030119092528176</v>
+        <v>0.000445847617043136</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0232302348115488</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3440107633972189</v>
+        <v>0.02188143771290669</v>
       </c>
       <c r="C23" t="n">
-        <v>19.84444444444444</v>
+        <v>17.96</v>
       </c>
       <c r="D23" t="n">
-        <v>3.597635478556532</v>
+        <v>2.375684047978165</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08756721701743339</v>
+        <v>0.002907837336158197</v>
       </c>
       <c r="F23" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G23" t="n">
-        <v>3.488888888888889</v>
+        <v>4.18</v>
       </c>
       <c r="H23" t="n">
-        <v>141</v>
+        <v>139.62</v>
       </c>
       <c r="I23" t="n">
-        <v>0.172707845434992</v>
+        <v>0.005495074800518452</v>
       </c>
       <c r="J23" t="n">
-        <v>0.111028656507804</v>
+        <v>0.00686400361584</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1260653654189847</v>
+        <v>0.005936930122664448</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1544918358391089</v>
+        <v>0.00357082231669184</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0319033451229696</v>
+        <v>0.005653057457142145</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0511823604273408</v>
+        <v>0.002238127309700352</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04831986703824</v>
+        <v>0.001506868120525091</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.00134439326265888</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.003730049077797504</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01678350824720693</v>
+        <v>0.00125101562931072</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06449173139888639</v>
+        <v>0.001785266176091328</v>
       </c>
       <c r="T23" t="n">
-        <v>0.119454051045168</v>
+        <v>0.00478550176844544</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06425658830472</v>
+        <v>0.0531610284003624</v>
       </c>
       <c r="C24" t="n">
-        <v>23.92105263157895</v>
+        <v>37.20833333333334</v>
       </c>
       <c r="D24" t="n">
-        <v>6.01550675404842</v>
+        <v>10.63638583638584</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01733317631422562</v>
+        <v>0.01507188089576248</v>
       </c>
       <c r="F24" t="n">
-        <v>57.99999999999999</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>1.758620689655172</v>
+        <v>2.478260869565217</v>
       </c>
       <c r="H24" t="n">
-        <v>149.7878787878788</v>
+        <v>242.2916666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0109606584471552</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0245717737360704</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03392666309971008</v>
+        <v>0.000366986331936</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0068442950906064</v>
+        <v>0.0056546477312472</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0365382465744576</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.0242781846705216</v>
       </c>
       <c r="O24" t="n">
-        <v>0.023840519489472</v>
+        <v>0.02061973870371072</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01621857171198371</v>
+        <v>0.002548516194</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.020061919479168</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.024710413017024</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0008073699302592</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.009465528946675199</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08708039081453323</v>
+        <v>0.7192297808581759</v>
       </c>
       <c r="C25" t="n">
-        <v>18.1</v>
+        <v>33.81481481481482</v>
       </c>
       <c r="D25" t="n">
-        <v>2.464971612312038</v>
+        <v>12.40917107583774</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01166099089610491</v>
+        <v>0.2609393207115648</v>
       </c>
       <c r="F25" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G25" t="n">
-        <v>4.34</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>149.2173913043478</v>
+        <v>147.3703703703704</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01736867155138364</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02713348396248057</v>
+        <v>0.3013150935895579</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02917024839609227</v>
+        <v>0.187733896914816</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01636966058365404</v>
+        <v>0.1818250462773818</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02083089176543767</v>
+        <v>0.087995167146432</v>
       </c>
       <c r="N25" t="n">
-        <v>0.009205087581756408</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01673502156819916</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.004303875896628511</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.006666918363504</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.004660590494723543</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.005806496374031628</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01982809028668391</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.492787479444283</v>
+      </c>
+      <c r="C26" t="n">
+        <v>69.92307692307692</v>
+      </c>
+      <c r="D26" t="n">
+        <v>35.87435897435898</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7770512132977182</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="H26" t="n">
+        <v>172.4615384615385</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.342561352732704</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.672074302552128</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.505843086271488</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.523757456104512</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.348820508505168</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.186429056623488</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.094111606012032</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.077801102370432</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.004316933619829555</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18.04081632653061</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.493808759008449</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0006024405874624208</v>
+      </c>
+      <c r="F27" t="n">
+        <v>52</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="H27" t="n">
+        <v>147.12</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001299354031012189</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.001848777053112131</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0008550359710738759</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0003425205764736</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0004321425017463916</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C28" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F28" t="n">
+        <v>40</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1113806235843034</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18.62222222222222</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.017634448884449</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02167599813273743</v>
+      </c>
+      <c r="F29" t="n">
+        <v>66</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.488888888888889</v>
+      </c>
+      <c r="H29" t="n">
+        <v>144.5681818181818</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.035978252616096</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.02245059273748032</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.04049008390374284</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.03464795805393339</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0146357644284</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01982745598932</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02654045152561153</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.01678350824720693</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.01651438493712</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0375007604619744</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1200360784909051</v>
+      </c>
+      <c r="C30" t="n">
+        <v>19.65217391304348</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.016885891885892</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.04337402433833742</v>
+      </c>
+      <c r="F30" t="n">
+        <v>52</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.423076923076923</v>
+      </c>
+      <c r="H30" t="n">
+        <v>141</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0109606584471552</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.053906214535488</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.06147021059928</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0068442950906064</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01741445289640912</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0096517405299168</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01370938607335597</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.024710413017024</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0135662614039008</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1651866644432592</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.97916666666667</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.603948240621035</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02880791127485889</v>
+      </c>
+      <c r="F31" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.297297297297297</v>
+      </c>
+      <c r="H31" t="n">
+        <v>151.8717948717949</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01760422313499055</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.021071131891992</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.007980729431834987</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.03401596310714784</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.05163803512282831</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.05120030198134657</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.00669872384560512</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.04155655359821439</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0275525182765728</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.06021905904910582</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.04208675710127894</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.01472349163727261</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0865221247863</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.075576645576646</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01172440910832619</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="H32" t="n">
+        <v>140.46</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01326796738537846</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.02043361076407754</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.02142647725963541</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.02232500185944</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01936730476973551</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0209151627009192</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.008477384267722401</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.003819104427680693</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.006666918363504</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.01636314208517062</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.0145372460738148</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.01115883106640064</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>1.59761383169472</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>20.25581395348837</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>6.910492801771871</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.49635734530535</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>89.583</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>2.930232558139535</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>110.5116279069767</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>0.8005544698089599</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.55486294575768</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.244902212178624</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.434022501902976</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.04403835983232</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0.44160688609632</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>0.7420226866370477</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>min</t>
         </is>
